--- a/realme/Others/RSC Information All/All RSC Bank Information.xlsx
+++ b/realme/Others/RSC Information All/All RSC Bank Information.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,9 +422,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -466,6 +463,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -766,16 +766,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="22" customFormat="1" ht="28.5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" s="22" customFormat="1" ht="30" customHeight="1">
@@ -952,90 +952,90 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="44" customFormat="1" ht="15.75">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:9" s="43" customFormat="1" ht="15.75">
+      <c r="A8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="38">
         <v>1788914019</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="39">
         <v>1725899584</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="41">
         <v>44428</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="44" customFormat="1" ht="15.75">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:9" s="43" customFormat="1" ht="15.75">
+      <c r="A9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="38">
         <v>1705424725</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="39">
         <v>1725899584</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="41">
         <v>44428</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="44" customFormat="1" ht="15.75">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:9" s="43" customFormat="1" ht="15.75">
+      <c r="A10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="38">
         <v>1737495544</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="39">
         <v>1725899584</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="41">
         <v>44428</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="42" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1840,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1048568"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1857,16 +1857,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="22" customFormat="1" ht="28.5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" s="22" customFormat="1" ht="30" customHeight="1">
@@ -1898,90 +1898,90 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="53" customFormat="1" ht="15.75">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:9" s="52" customFormat="1" ht="15.75">
+      <c r="A3" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="47">
         <v>1788914019</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="48">
         <v>1725899584</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="50">
         <v>44428</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="53" customFormat="1" ht="15.75">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:9" s="52" customFormat="1" ht="15.75">
+      <c r="A4" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="47">
         <v>1705424725</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="48">
         <v>1725899584</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="50">
         <v>44428</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="51" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="53" customFormat="1" ht="15.75">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:9" s="52" customFormat="1" ht="15.75">
+      <c r="A5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="47">
         <v>1737495544</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="48">
         <v>1725899584</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="50">
         <v>44428</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/realme/Others/RSC Information All/All RSC Bank Information.xlsx
+++ b/realme/Others/RSC Information All/All RSC Bank Information.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>RSC Name</t>
   </si>
@@ -196,6 +196,21 @@
   </si>
   <si>
     <t>02434007390</t>
+  </si>
+  <si>
+    <t>Anik Kumar Kundu</t>
+  </si>
+  <si>
+    <t>RM2154</t>
+  </si>
+  <si>
+    <t>RE Shaha Enterprise</t>
+  </si>
+  <si>
+    <t>Masum Hossain</t>
+  </si>
+  <si>
+    <t>RM2155</t>
   </si>
 </sst>
 </file>
@@ -299,7 +314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -422,27 +437,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,6 +461,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,7 +761,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -766,16 +777,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="22" customFormat="1" ht="28.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" s="22" customFormat="1" ht="30" customHeight="1">
@@ -895,31 +906,31 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="48">
         <v>1733433999</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="49">
         <v>1725899584</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="51">
         <v>44362</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="52" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1098,25 +1109,57 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A13" s="27"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="A13" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1747566379</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1725899584</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="31">
+        <v>44503</v>
+      </c>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="31"/>
+      <c r="A14" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="29">
+        <v>1749152530</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1725899584</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="31">
+        <v>44503</v>
+      </c>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" s="22" customFormat="1">
@@ -1857,16 +1900,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="22" customFormat="1" ht="28.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" s="22" customFormat="1" ht="30" customHeight="1">
@@ -1898,90 +1941,90 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="52" customFormat="1" ht="15.75">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:9" s="43" customFormat="1" ht="15.75">
+      <c r="A3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="38">
         <v>1788914019</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="39">
         <v>1725899584</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="41">
         <v>44428</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="52" customFormat="1" ht="15.75">
-      <c r="A4" s="45" t="s">
+    <row r="4" spans="1:9" s="43" customFormat="1" ht="15.75">
+      <c r="A4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="38">
         <v>1705424725</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="39">
         <v>1725899584</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="41">
         <v>44428</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="52" customFormat="1" ht="15.75">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:9" s="43" customFormat="1" ht="15.75">
+      <c r="A5" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="38">
         <v>1737495544</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="39">
         <v>1725899584</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="41">
         <v>44428</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="42" t="s">
         <v>55</v>
       </c>
     </row>
